--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/77_Uşak_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/77_Uşak_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E55654-125E-4D11-A784-DB4DC86C3A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA5AB5F-F3D6-43AE-8A7B-A94A2A4C4067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{B99FD796-385D-4CB7-BA15-E92C74FA3B17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{84431897-C0B4-477F-AD9C-F7BDB87F7CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -976,15 +976,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D38BEE1C-6942-4A3C-AAF4-F78925D4551B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{15DD0E90-67CF-4279-82E1-29649500C8DE}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{75F7C677-5C51-40F7-984A-5EAE2BC09022}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{75360779-8AFA-4205-89AC-8F4136934697}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{CC181088-E8BD-4CD5-9F7D-23A9B8AEC8F8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{72A60AC8-1742-4793-A91A-20BD206505E3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{3667B2AF-9D54-4B02-96CD-72BC21DAD973}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{C9D82221-9483-4900-9974-1351478CBEAC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{B53C9810-A026-4C7C-A3D7-B64E70BC3AEE}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2D38DDD6-1FB5-4313-9E8B-998C98905A69}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{07EFA56D-F42F-4BC6-A82D-D432366D75C4}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{813864D1-8AB8-4FE2-A938-9A12527E5EAE}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{B0221BC0-60EA-4736-AF39-BF0EDEE2B78A}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{A489A715-BF85-4D28-8AC9-1BC42F83E2CA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{32369477-8687-4DFF-81E5-F40C5F66C5F2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{F694EEB2-ED17-4ECB-A40D-39972642FB36}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{E8991BC4-62B2-4E24-B5F3-1544E8FE9E4B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{42D9F8CD-84C1-4A75-AB0A-18B22F1181F4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A5D34-C4FA-43B2-9833-FFBFECFDACC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF3E045-9EC0-409C-AFCB-D4AA93CD0F79}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2587,18 +2587,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7391455-603D-4C3C-B241-E2E079D76174}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33D23964-F9A6-4175-A5A1-20F7F387A288}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D59818AA-8CD1-45B5-AE0E-F1EF2AC09955}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C98EA74A-DD75-47EC-89B4-32363BBEEB20}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3F8E11F-DF1B-4F74-B411-BE81A0C3AECC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2148ECE9-89A3-49DF-A36A-5AFD5BF8B9A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5536D819-24E8-4053-9009-6F72EFB07ECB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0AB23FC-B5B1-4F66-9C07-0C0C5A7733E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D07A841C-AF5E-40F1-9B1C-191249975704}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A1A5149E-6BB5-45EE-9434-A825FD8514A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{773498BB-BD93-412A-9803-1E572525ECB9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{782D8ADF-366E-45EE-90F8-842DF77F7C05}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF864B02-F11D-439D-AAB0-B0CAEB8D7ED1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F5374A8-7154-42CA-BD34-C69E54F324D3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ED650129-41EF-477B-B972-46126C6A7B91}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{444A8C7C-2C8B-40FA-8102-4DAADA5A7D08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF51287A-639A-4DAE-A5D6-6DE5DC027F92}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0AF8A098-A981-4E68-AC54-5AF62CCE9F4E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56EAF566-3E1F-4A22-AFA3-5C0ECF0FAC40}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15D2E612-BE76-4EC5-87DE-9C5E41395D03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{39695525-2856-4E15-80DC-8B93521990AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{90B3A86D-EEA4-4C2F-B23C-DF96EFCC748A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7EC6AD94-3B86-4F4F-9487-61130472B99C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E258723-31A5-4CC0-B0A6-17D5674DC870}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2611,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC18489-4F32-44A9-90B3-A83BA2CB275D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4349F951-2AF4-4AA0-BA23-E7CD7F87F32B}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3832,18 +3832,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3FD2359-77DB-4C8F-B2F6-88278309C424}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C946AA7E-60E9-4B97-82E0-30C4A00379C7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{88A382B5-F045-412E-87B0-2F5458AE7FC8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{07F9C2F3-2D1E-40CC-B0FB-8BF5CAC433FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{359FCB87-6B85-4B30-BFCA-705A7F5D6487}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0AF54F3-3C89-48EB-9F63-8AAB465228CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{991C5EC9-4417-4184-93EC-C0DC3CA1158E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F70D772-ECAB-463D-B6DC-C2178EE6B8EE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D33E6B3D-3592-44A3-8FB8-6EA70C7A5C5C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C5F4381-3690-43C1-B3A6-480BC870AB5D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E75431D3-5589-4DE8-BBB4-226D257C8FF7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4D4FD6B-EC19-4872-87AC-ABA8FDE9AE12}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D395384E-5821-4E2E-81D8-8EBDDE3633CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACCA981C-D666-4D1C-BA8B-336150D74632}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{932E8069-3C6A-4CDF-9273-21B5ED7A0609}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{20B053CB-BBC2-4F1B-A76F-91883936F718}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A89B65F0-0736-43AF-9AFB-186470FFB9B7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F063C1C0-644D-4E37-85EE-A22698911372}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85BF4CC2-F487-49D2-B56A-310B6169F044}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A96DEF67-3CD6-4424-82D7-48A6D7D3B54F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{227BDD88-B375-4F58-BD64-22ED2F4A3D42}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0722D2C3-15E5-4945-A97C-F5F3A0758420}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2B3341B-90A0-48C4-A07C-14D4DA535D07}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E169511-E36E-44AF-9282-4F111A3891A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3856,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A166E234-CECF-4581-80FD-3C31015359BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F68102A-52CF-4425-B307-9A19F5B39661}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5077,18 +5077,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA2E4E8B-B9A7-48FA-ABE4-41C2774D71B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A5484E6-DFFA-4FD5-B878-94D7A70AC71C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7AB7B643-B2AC-4F21-B0D5-058E1AC020DE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{784DB429-9E99-4195-BB04-F2C3C87F0E30}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77511E6B-F8A5-4E83-B8FD-607A4CC9E4B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8D4B033-B4E4-4927-B3EB-647A179BE4C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB4F8CCF-2FBC-4B14-95C4-9CD44DE9B858}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B744092-26FE-4CEA-9AAA-1C4A15F9D222}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C4DC345C-69F3-4544-B191-45A6FD1A3989}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0CF8A041-4A37-4F60-8278-479C8EED5462}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18D753FD-CDEC-42CE-B442-088E4DBFF0DB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7EEBCFB9-5CAA-44A7-A48E-689EA67FB1D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C62EA8E8-34F3-4058-87D7-66386910FE90}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E7BDEDF-7ABC-4D6F-97B9-C2B1F72DDD27}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8D5DB06D-9218-4B63-852A-53A6C29D8E29}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{74791E73-6B53-4BA7-B551-B957DDFD569B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C759172-2ECA-43AE-82CB-AD1F335E798C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F286F92E-FEFD-4052-AFB6-60D9F5DE7FAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28AF39E2-9358-4C49-9A77-24A46D909C54}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9971878-1723-4E14-91CA-AB1C10523515}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92CF78B8-CFEF-4467-9882-8BB96938BB99}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{336B2516-935F-4D14-B850-0F2336D2759A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{194CBF63-BCA2-4CF1-ACDA-A06650A15F57}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1CD527E1-DB59-475C-B373-EFF4CD395DEC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5101,7 +5101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E055AABA-4C5A-42F1-9AD1-56BEF4E30988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7439AF-7D07-4B68-AFC6-FD8EA128B2B5}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6318,18 +6318,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6544CF30-718D-4DCD-87C4-C159B295B2A1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE23F399-569D-4EE5-AE56-9C2A4E5967BC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{02B97A67-3235-4544-930D-42A1E056753D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{28D79D93-2FD5-471E-8457-3069BE768EE6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B730DF6-EA82-4AA3-BAAD-57FCAB8464D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A3738504-689A-4ECE-A66C-86A9C0942725}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96EAF81C-37E0-4153-B2EA-EBEDB38A1066}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98CBDBF2-A78C-44C2-A43B-3AB9868AE29B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CD00EEBC-5ABC-43EA-8DE9-7B5315C0F59F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA5BE7BF-778B-4A9C-874D-CB63D2D0E5C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2ADF640B-AEFC-4716-82BC-3AFF18E94C5B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7478B62A-8235-4735-9B48-DC7AEFE0A767}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B82F652A-A6BA-488A-9782-0D9D142693F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31B89921-8F60-4BFF-B2C2-D4C91E8583F0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{37FC94E5-0ADE-40ED-A797-786B3B84B315}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0BC97366-EFF7-4D05-B87F-99553EBE0150}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{905789B8-74CB-4F45-AB29-C1CDA9841FA6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C80FEF88-3A0B-4ABF-8EDF-6563176B68B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3F0CA70-313A-409B-9DDD-5DEF68C8DDBE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8EA5DCE7-4615-4AD6-BE64-C61AC4DB9830}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E999132C-668E-435A-83C9-96491CE6A9B0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C558CB64-E941-452B-910B-60BCC6465C7D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F88C0AE6-1410-40B0-B1D8-E3DC2DAC3231}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE2BA849-9214-4F79-8510-AAE316ADED6B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6342,7 +6342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99061E2-5B50-45C3-AB24-F1C04B11C335}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EDFCC7-06F9-4096-92FA-93468E521F98}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7575,18 +7575,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45CE4B7A-A1D0-421E-927D-9841676DAB06}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B158EF0-9170-4F31-8A5B-3213DE2113DD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ED1D0369-6F86-4F18-B7AA-C2BCA49298E5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{61CC950F-9EFF-4196-8A7A-CFA9222E84A0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCD6F5AD-165F-4A40-95ED-B66296EB5AE4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63955945-7285-4C22-B3FB-EB0BAAFAF788}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86A5A422-DDB7-43FD-9A01-53BB1E4B468B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{058D73AD-2D20-42CC-B5AC-83DEDB6897C8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F87A646-117B-4474-B12E-61F1E490D3DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{676A7BD6-B8D2-4CF1-82D5-459C65BD292D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B21A17D-8C30-4EA9-AEEC-5EFEBF7DAD50}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{559823E4-15C4-40A0-B547-77212B08AE87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DECE73F3-A4A3-495F-A7DE-5D2A51FBD473}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4791B2FE-5E8F-413C-AC18-ECD1FA840E67}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B1E1A0F4-7033-43B1-B970-A1B9ACE9F210}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{982A2111-020A-4299-B0D7-ED6C83A6CD81}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91921DD6-F3EB-4FAE-918B-75CB05C37E47}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{776148EE-5E01-4D42-8A62-226B59FD28D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1261304-C945-4CC2-AE52-DD985BDA3E96}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB6FBC95-E2D3-4D90-A5A9-500816DAC117}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{527ED27F-59C0-4267-AFFA-A7A4BFE693DA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2FD963FE-CED2-4EA6-927A-607147EFA36F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9A024F4-B1F0-4648-AA26-8EE2837A626A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4577DDF-097D-4A05-A6FD-6092E16A0DC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7599,7 +7599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AF59D2-1E55-4E3A-92FE-98E4F2D8A7F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D64008-0581-49C9-9AB2-567C8602E3ED}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8832,18 +8832,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7690802A-9987-47BF-B03C-864F6AA99C57}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF5128C0-CAB2-4AA0-9237-3D6A5624B6A8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{79BFC7B2-AED4-402B-A8B6-E9E678407091}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A1C3C14F-04DD-498A-BC6D-91165EF11753}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A016C33-071F-4182-BA0D-6905FE6D686A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA022CEB-74B1-4B49-97CF-EF937D1F4FDD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C5C7155-769B-4E16-88F4-00770C28D4BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F801907-5470-4375-BE98-BF9B02C600F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB00E364-2B7B-4DF7-A299-0DF8775ED4E0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B34E3A3A-8B4D-4DB7-BFAA-F4BAB40A23D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B661EE82-FC53-4648-87EA-179C41BC6669}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22589F4C-5FC9-4F89-8876-E2DCF36B9BC9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6E12015-07D9-48BE-9970-AF129A076B98}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C629FD7F-AF49-46F2-B1CB-3FC623C8EA53}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F91951F-569F-46BE-9CC4-A622F71BB640}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB14B6B5-5C10-4C74-BC96-5CBED78BD712}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0E3AA5B-2920-4FD9-9FEB-0ED70E262066}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7DC94AE1-EE52-478D-90EF-FA90B018E739}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC3292D4-D890-407C-B2C2-953160D2C77C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F697EF6-3B70-4AF5-B2FC-758BEC513ABB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{02D73EAB-033C-4D0D-ACD1-3D349F65327C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B88FE57B-108B-444B-8B06-7A64CAD12D1A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6FBEBAB9-AAC9-48FC-AB35-71F41A2F0D88}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81448D53-0B6C-4BCD-8F47-10DC97320CE6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8856,7 +8856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4428B941-6585-479E-BCEB-56D2087A4053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CE9A37-3E2F-48CB-81DC-E663AE7342E9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10089,18 +10089,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B61F884A-BC04-4E4B-9424-3599DC098B07}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38C029F2-C611-4789-8649-B9BE9C89FC25}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2ED72A5B-2D2C-47E4-AF70-C06B41E373A3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{64F81B90-1DDD-4557-89B8-44F8CCA4B5E8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B51E9B7B-B750-4FDF-BD56-4735706A4CC5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BA1011F-34FD-4288-8E58-019437473D6A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3A55081-EDDC-442E-A15E-8767564D9AE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBA02CA7-F117-4C46-8EA3-FE9C99155DAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EBDBBCEA-75A5-4465-996A-6B91CFBB7B81}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47ECD7C2-CADC-4DD9-A5B1-3B6FA131ACD0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{695DF306-96DF-464F-9178-C0FD05AB0473}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D51A9EE8-0441-49D1-B0C3-024CED998B59}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{120460AA-2D91-4C21-AB9D-434E6A8158B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3012C5E1-1BCD-4421-9A37-5F5A018FC371}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E069C50-0FB6-4BCE-B962-4FE020F99414}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{369CE3D5-854E-4B31-B497-585EA9C4AFA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2CCB5D2D-2EA3-4E88-BABE-C8B55C949675}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{941830BD-910F-4FB5-AA4B-7E04AB78B8DE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B71E7E1F-9E07-4F21-AC1A-C32A1DB38406}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A8CD803-23D8-48C1-8811-2589C9C087B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C1D868A-CC0F-4DA2-B0A9-D138DC4CA743}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B0DD3DB-379E-4FA5-B8C7-FB4A10DE80E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2D31C97-76FE-4710-9217-0C729ED279DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{17A70EC7-FF98-4DE9-AB62-4410BE719A3F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10113,7 +10113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938EB9C8-5BA0-4EA5-BE65-0F305CE46C19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A5F58C-87AE-4902-B1CA-381B414E5035}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11346,18 +11346,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24C6F10F-24B4-482A-BD33-025F980B3D4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7D06A9A-FE48-45BD-8444-CD308712B968}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE388AD1-DAAC-4FB4-9E7B-A62998AEC4B1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9BC5ADC7-DC6F-4562-9343-8F882D189D3E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B6E43DA-F49D-4BBA-9814-82486B1E5D4C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0262670-27C5-4A7D-BE58-F6B614ACC3F6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04980AEA-7191-4D47-8927-D5C1B9CFE3F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17B9C25F-36BE-40A6-831F-A0F6FFDFD5EA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{758F0D6A-8EC6-469E-8F56-74AD1D92CEF8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A6C3E94-F5B0-4976-8B34-5AE279D46C05}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B40B6500-48B2-4169-87AE-68354AC8CAAA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1609D412-C1FB-4F6D-A170-85B5CE5FD87A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3646B36F-281C-4188-8E7C-C4CA0B133949}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B270DF8D-C895-477A-8DB9-6DAEEA1D4D89}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC485F87-8E59-4C89-89E7-ADBC87996C6D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B40DD64A-7351-4D4A-93E1-4715C92B6CA9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F90B4256-9250-4CAB-AC2F-40C1EA0C1654}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{869ECFAD-FE21-4723-9F18-33AEF8AD81BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E2B91177-8B38-4EEF-9E78-CAE740449474}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E315C63-3D46-40B1-976C-771F5C5E0960}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF245763-93D8-40EA-A858-58CEEC55113B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F4331B7-721F-4AFF-B6C2-B60212C7DD6A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F06F12CD-CE91-48DC-97B9-5FC5C8920DD6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74198C21-DD59-44F5-BDD9-47A71D832CDD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11370,7 +11370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB904003-8C0F-4E1B-8BB6-3825E3F99FA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B73D20-D6D2-4F92-AE5C-6854DB8C1982}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12595,18 +12595,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B524625-EE28-445F-9069-6F31FDC120CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FDA531C1-089E-44B2-96A4-B9F10400475F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E99BD7C-1FF4-4B57-B894-69C56BA3D5FE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B3A9DAC2-F038-4BA2-93E0-A6B96BF82F86}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33064FA3-B61D-4396-8401-270A52729AD3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A715C3D-1975-4100-A492-5F3AF7689BC6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D0EDC816-29B5-4847-9925-74B7F8B32B15}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4EB29D62-4531-40FB-A1B9-E059F3F5698B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D5A77D3-B2E8-4064-92D4-AB9F03B0B8DB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA0F91A5-7B3C-45D1-978A-07F8B7DD1391}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F85C590C-D7C9-4AEB-8968-6E2C12FD4540}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D205121A-461E-425F-810E-BA99EB4350D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1236D591-F52C-47F6-BE1A-77AF3A982C48}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B45747C-7A52-4054-9A80-728153CE6837}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9510FCD8-4801-4642-8FE5-D3A944F14A16}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{27B334E7-5373-4682-AFFD-88FABBEB77E9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{21401624-BFB1-47D8-99FF-062A2C541E8E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2902ABA-EB78-4155-8669-9ACC7400A432}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A135F08-88BC-41AF-8C54-68D759A4954D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F2A32FF-81F2-4FA1-A718-084470A2D1AB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C704AC6-D284-48DB-AA38-59835E59301B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8337437-DA51-4761-9551-120D10341AD9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFD63922-DFD5-42AA-9126-B95687DB430E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1AEF3900-634C-4E18-A57F-5C47F712E5CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12619,7 +12619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55009D0A-9CB1-4076-84AC-535C4DE0AE06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC12A6AB-A023-4344-81A7-9B90B8985508}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13840,18 +13840,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6868D793-022A-43E3-8063-9970D31ED713}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF5A3A67-46F0-4632-96FC-190BB9533635}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{55EE67E5-389A-46B1-9FBF-1BB65FD0A858}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B95DF9E8-44C7-4D03-A013-9D57CF614B62}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC73CF02-C942-4C27-90C1-E6CC9FA0FC61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05E46DC1-410E-4C0D-8F0E-3650F06A7E17}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{387E1B8D-E713-41AA-BA4C-522639913153}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F5D50B6-4B03-45D7-84FD-80D750E7DC9B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3F9E11A-D4EA-4E4F-BF0A-16EA87256DD3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B638A1CB-0349-47EC-808D-E1B94F73D6CB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17F03E3E-BAC7-4F50-8E95-1D6722AEB2DC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A7313E9-84EA-4F36-89E2-79FBEDC02350}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B053937E-0286-49F2-A38A-113299173F52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAF7FFBD-CADD-4984-AECC-AAAD18B7B4F7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7784289F-9544-430E-9EA6-338731011444}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{353925BF-E8EC-49A7-B909-C30B265AC4CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9382B8FD-64AD-47A6-B9BD-A76B8EE89BFD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{538A621E-D95F-4C5B-A945-A5766E6FCEE5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82CFF2BA-1892-4A2D-BF99-B3D46B09E0B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6540422A-FD7F-4812-972B-08CE08069691}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D327291-1CE5-4AF0-AEEB-62D4276D7E10}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5CAEE7BA-183C-48AB-B2B0-1A25E9C754EF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD8FD238-A7E0-487C-B2AE-EA4E1B315364}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B80A3A8-011F-49F0-899E-07EDC9D48132}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13864,7 +13864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD77B8D-2734-4F3A-AE34-C1F63E9F049E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E264CB-C1F3-4C74-B096-F692B01B07AB}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15085,18 +15085,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C5354FA-5413-4E78-AD02-71244306AFE8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D1AEB54-13EF-45FA-9AB6-1B691AD95B7F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{29ECF20A-C1FD-42BB-AB5D-58CAF88A7737}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4D00D007-EAC7-4DB5-99E4-6E638695AE0F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{391AB5BA-0BC6-4363-9358-FB53D3FA557D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E976961F-5402-4CD5-AAF0-83613C2EE838}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D3AAB91-7028-4DAF-B2B6-AA002AFCA3AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8ADA2C29-9A40-4B18-9B80-41302B7C5842}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00121B48-BF45-4E31-B247-E2528A7CD2C3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CFB9F55D-8BB2-4987-8EDB-D10D9480D0CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A00E5210-5E60-4853-BBD6-BCD1A3ACC387}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85233832-C648-4209-BBF8-DC082B07830B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFAAF921-6286-4A02-8A76-02FBF5DAD86E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C70FC66F-0D64-4BB7-A645-F8836F0ADEC7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{187DFF54-A18B-4880-9948-B9348CE97A86}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3984C190-FCD8-4C0A-9BA0-30A42EA3E3CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6ECD1654-6742-4A6C-8ADC-4A2135FF50A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE412E4E-12EF-497B-A34A-90E08F1B3B3A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7458C5B4-FC66-44A7-9321-2085FDB7B4ED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F16A4EE6-2278-4212-BC88-F486F525DD60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A70EBEE-2F62-4577-B17F-F5B50B94C6F8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7FB777EE-43DD-4C77-BB83-481B07162193}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D1ADF1F-803C-4D5A-A62F-1BBD606B9044}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A27B618-405C-46ED-BB97-1363AD676DC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15109,7 +15109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC9E0F-6258-49E7-8964-3229284CB036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3D2037-D1B6-4809-85B6-0087A5D7BB2F}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16330,18 +16330,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F7F78DD-741E-4B63-A7B5-DF5CC36F8710}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03705C97-349A-4F86-9924-878B2894C050}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C26C67F7-5D83-404C-B3A1-E6AF2093F675}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BDAD6739-8591-4956-B692-2568AD9C40CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BCB6CE41-624A-488F-9CF7-C1AF9D3818ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CEA08046-C70E-4995-B8CE-0E1B9AE76863}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5A1B04E-0B1A-4E28-8F81-E57D3D590490}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{638FCEB1-D347-4C04-A6E6-4A96D7DDC8AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E64F48E-A174-475B-8E6F-CE9EEF44B1F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CCC39A11-30CD-471A-BE30-87946F3C0B66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9D7F723-F679-41F3-9608-63F2FA170AD7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E1B002B-4F43-4D98-869C-AB9D5EE96F31}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C864CAD0-0209-4E37-84C8-FAAB3C5B5921}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{740018A3-E253-4D37-9FBB-EB0E64CEC4CF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6CB3ADAF-A39C-43A6-8200-B27DED9F6D37}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EAF043C1-0B6F-4867-AEC8-64CC82AE4E5F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A97E5F3C-14A2-489E-BC97-1C27F3CC31ED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{38BDAE3C-0CB4-4741-B556-42F74453E3BA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{79B74831-9EC8-43A1-A01A-BA5DCDA40258}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F05EBFF-6292-4E92-B4CF-18C8428A7B3A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E05DE27-BBE1-4F20-BB56-48BCBF45B56A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{91651105-7338-4E79-A7F1-679D0D42A0C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6567B03F-AEE7-4491-98F0-95B672D04C6E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C93A5AB-DE11-4549-946E-D5E2CDA60148}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
